--- a/학습자료/단답형/국어_한자.xlsx
+++ b/학습자료/단답형/국어_한자.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_한자.xlsx
+++ b/학습자료/단답형/국어_한자.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -15325,7 +15325,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -15425,7 +15425,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -16065,7 +16065,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>

--- a/학습자료/단답형/국어_한자.xlsx
+++ b/학습자료/단답형/국어_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D785"/>
+  <dimension ref="A1:D784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +551,9 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">속수무책|
+          <t>속수무책|
 「손을 묶인 듯이 어찌 할 방책이 없어 꼼짝 못하게 된다」
- 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다
-</t>
+ 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -598,7 +597,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -614,13 +613,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등|
+          <t>용사비등|
 「용과 뱀이 하늘로 날아오르다」
- 살아 움직이듯 매우 활기찬 글씨 </t>
+ 살아 움직이듯 매우 활기찬 글씨</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -642,7 +641,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -708,7 +707,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1271,7 +1270,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1311,7 +1310,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1521,14 +1520,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">불문곡직| 
+          <t>불문곡직| 
 1) 「굽음과 곧음을 묻지 않는다」
 2) 옳고 그름을 가리지 않고 함부로 일을 처리함 
-3) 잘잘못을 묻지 않고 함부로 행함 </t>
+3) 잘잘못을 묻지 않고 함부로 행함</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1614,7 +1613,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1700,7 +1699,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1722,7 +1721,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1862,7 +1861,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1970,7 +1969,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2054,7 +2053,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2130,7 +2129,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">마부작침| </t>
+          <t>마부작침|</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2156,7 +2155,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2202,7 +2201,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2291,7 +2290,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2418,7 +2417,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2440,7 +2439,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2484,7 +2483,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2573,7 +2572,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2682,7 +2681,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2858,7 +2857,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2878,7 +2877,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2899,7 +2898,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2915,10 +2914,9 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">법고창신| 
+          <t>법고창신| 
 「옛것을 본받아 새로운 것을 창조한다」
- 옛것에 토대를 두되 그것을 변화시킬 줄 알고 새 것을 만들어 가되 근본을 잃지 않아야 한다
-</t>
+ 옛것에 토대를 두되 그것을 변화시킬 줄 알고 새 것을 만들어 가되 근본을 잃지 않아야 한다</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3022,10 +3020,9 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">마부위침| 
+          <t>마부위침| 
 「도끼를 갈아 바늘을 만든다」
- 아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다
-</t>
+ 아무리 이루기 힘든 일도 끊임없는 노력과 끈기 있는 인내로 성공하고야 만다</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3075,7 +3072,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3161,7 +3158,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3206,7 +3203,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3282,8 +3279,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">유유상종| 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다
-</t>
+          <t>유유상종| 사물은 같은 무리끼리 따르고, 같은 사람은 서로 찾아 모인다</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3409,7 +3405,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3529,12 +3525,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대|
-「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름 </t>
+          <t>침소봉대|
+「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장하여 말함을 이름</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3622,7 +3618,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3765,9 +3761,9 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효| 
+          <t>반포지효| 
 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성」
- 자식이 자라서 부모를 봉양함 </t>
+ 자식이 자라서 부모를 봉양함</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3793,7 +3789,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3924,7 +3920,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4004,7 +4000,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4044,7 +4040,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4065,7 +4061,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4105,7 +4101,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4145,7 +4141,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4285,7 +4281,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4345,7 +4341,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4485,7 +4481,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4545,7 +4541,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4805,7 +4801,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4845,7 +4841,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4865,7 +4861,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5145,7 +5141,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5245,7 +5241,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5285,7 +5281,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5365,7 +5361,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5405,7 +5401,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5465,7 +5461,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5585,7 +5581,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5605,7 +5601,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5625,7 +5621,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5701,7 +5697,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>내과(Internal medicine)</t>
+          <t>내과</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5721,7 +5717,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>간호(Nurse)</t>
+          <t>간호</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -5741,7 +5737,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>입원(hospitalization)</t>
+          <t>입원</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -5761,7 +5757,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>보고(Report)</t>
+          <t>보고</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>곡절(tortuous)</t>
+          <t>곡절</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -5801,7 +5797,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>초유(First)</t>
+          <t>초유</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5821,11 +5817,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>서막(prelude)</t>
+          <t>서막</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5841,7 +5837,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>교양(Cure)</t>
+          <t>교양</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5861,7 +5857,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>이론(theory)</t>
+          <t>이론</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -5881,7 +5877,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>유교(Conf)</t>
+          <t>유교</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -5901,11 +5897,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>학문(knowledge)</t>
+          <t>학문</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5921,7 +5917,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>수용(Acceptance)</t>
+          <t>수용</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -5941,11 +5937,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>귀중(You)</t>
+          <t>귀중</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>귀천(Expensive)</t>
+          <t>귀천</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -5981,7 +5977,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>유산(heritage)</t>
+          <t>유산</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -6001,11 +5997,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>유언(will)</t>
+          <t>유언</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6021,7 +6017,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>유실(Lose)</t>
+          <t>유실</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -6041,7 +6037,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>유기(Abandon)</t>
+          <t>유기</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -6061,7 +6057,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>투고(Posting)</t>
+          <t>투고</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -6081,7 +6077,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>투수(pitcher)</t>
+          <t>투수</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -6101,7 +6097,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>투기(Dumping)</t>
+          <t>투기</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -6121,11 +6117,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>포기(abandon)</t>
+          <t>포기</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6141,7 +6137,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>노선(route)</t>
+          <t>노선</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -6161,7 +6157,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>전선(Front)</t>
+          <t>전선</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -6181,7 +6177,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>시선(Vision)</t>
+          <t>시선</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -6201,11 +6197,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>근절(eradication)</t>
+          <t>근절</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6241,11 +6237,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>간여(Dry and)</t>
+          <t>간여</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6261,7 +6257,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>약간(Slightly)</t>
+          <t>약간</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -6281,7 +6277,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>간만(Full)</t>
+          <t>간만</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -6301,7 +6297,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>간척(Reclamation)</t>
+          <t>간척</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -6321,7 +6317,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>견습(Appraise)</t>
+          <t>견습</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -6341,7 +6337,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>견해(opinion)</t>
+          <t>견해</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -6361,7 +6357,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>견문(knowledge)</t>
+          <t>견문</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -6381,7 +6377,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>알현(audience)</t>
+          <t>알현</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -6401,7 +6397,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>참가(join)</t>
+          <t>참가</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -6441,7 +6437,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>참견(See)</t>
+          <t>참견</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -6461,7 +6457,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>참여(participate)</t>
+          <t>참여</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -6501,7 +6497,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>화목(harmony)</t>
+          <t>화목</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -6521,7 +6517,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>화음(Chord)</t>
+          <t>화음</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6541,7 +6537,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>화해(reconciliation)</t>
+          <t>화해</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -6561,11 +6557,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>화합(Harmony)</t>
+          <t>화합</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6581,11 +6577,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>세금(Tax)</t>
+          <t>세금</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6601,7 +6597,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>혈세(Blood tax)</t>
+          <t>혈세</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -6621,7 +6617,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>세무(Tax)</t>
+          <t>세무</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6641,7 +6637,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>세력(power)</t>
+          <t>세력</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -6661,7 +6657,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>권세(Power)</t>
+          <t>권세</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -6681,7 +6677,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>경제(economy)</t>
+          <t>경제</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6701,7 +6697,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>첩경(shortcut)</t>
+          <t>첩경</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -6721,7 +6717,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>경로(Passage)</t>
+          <t>경로</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -6741,7 +6737,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>직경(diameter)</t>
+          <t>직경</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -6761,7 +6757,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>한문(Chinese)</t>
+          <t>한문</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6781,7 +6777,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>한자(Chinese character)</t>
+          <t>한자</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6801,11 +6797,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>괴한(Blame)</t>
+          <t>괴한</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6821,7 +6817,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>비탄(grief)</t>
+          <t>비탄</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -6841,7 +6837,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>기반(basis)</t>
+          <t>기반</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -6861,7 +6857,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>창제(Creation)</t>
+          <t>창제</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -6881,7 +6877,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>구현(Embodiment)</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -6901,7 +6897,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>유리(favorable)</t>
+          <t>유리</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -6921,7 +6917,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>강도(strength)</t>
+          <t>강도</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -6941,7 +6937,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>통제(control)</t>
+          <t>통제</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -6965,7 +6961,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6981,7 +6977,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>단서(Ductive)</t>
+          <t>단서</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -7001,7 +6997,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>훼손(damage)</t>
+          <t>훼손</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -7021,7 +7017,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>매목(Buried tree)</t>
+          <t>매목</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -7041,7 +7037,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>상감(Inlaid)</t>
+          <t>상감</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -7061,7 +7057,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>보판(Supplement)</t>
+          <t>보판</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -7081,11 +7077,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>현실(Reality)</t>
+          <t>현실</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7101,7 +7097,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>야박(Scorpion)</t>
+          <t>야박</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -7121,7 +7117,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>근성(guts)</t>
+          <t>근성</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -7141,11 +7137,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>채용(use)</t>
+          <t>채용</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -7161,7 +7157,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>활력(vitality)</t>
+          <t>활력</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -7181,7 +7177,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>활로(Live)</t>
+          <t>활로</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -7201,7 +7197,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>부활(Resurrection)</t>
+          <t>부활</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -7221,11 +7217,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>대화(dialogue)</t>
+          <t>대화</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7241,7 +7237,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>동화(fairy tale)</t>
+          <t>동화</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -7261,7 +7257,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>실화(truth)</t>
+          <t>실화</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -7281,7 +7277,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>공감(sympathy)</t>
+          <t>공감</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -7301,11 +7297,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>공공(public)</t>
+          <t>공공</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -7321,7 +7317,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>공동(common)</t>
+          <t>공동</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -7341,7 +7337,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>선거(election)</t>
+          <t>선거</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -7361,11 +7357,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>선수(player)</t>
+          <t>선수</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -7381,11 +7377,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>선택(choose)</t>
+          <t>선택</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -7401,7 +7397,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>언약(Appointment)</t>
+          <t>언약</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -7421,11 +7417,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>언론(Remark)</t>
+          <t>언론</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -7441,7 +7437,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>격언(motto)</t>
+          <t>격언</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -7461,7 +7457,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>화두(Words)</t>
+          <t>화두</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -7481,7 +7477,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>통화(Calling)</t>
+          <t>통화</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -7501,7 +7497,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>화제(topic)</t>
+          <t>화제</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -7521,11 +7517,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>통화(currency)</t>
+          <t>통화</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7541,7 +7537,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>재화(Money)</t>
+          <t>재화</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -7561,11 +7557,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>화폐(currency)</t>
+          <t>화폐</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7581,11 +7577,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>화물(goods)</t>
+          <t>화물</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -7601,11 +7597,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>정의(justice)</t>
+          <t>정의</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -7621,7 +7617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>정직(honest)</t>
+          <t>정직</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -7641,11 +7637,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>정치(politics)</t>
+          <t>정치</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -7661,7 +7657,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>정부(government)</t>
+          <t>정부</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -7681,7 +7677,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>정파(Political faction)</t>
+          <t>정파</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -7701,7 +7697,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>선정(Good politics)</t>
+          <t>선정</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -7721,7 +7717,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>단정(Determine)</t>
+          <t>단정</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -7741,7 +7737,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>안정(Stability)</t>
+          <t>안정</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -7761,7 +7757,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>규정(Regulation)</t>
+          <t>규정</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -7781,11 +7777,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>구조(structure)</t>
+          <t>구조</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7801,11 +7797,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>충분(full)</t>
+          <t>충분</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7821,11 +7817,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>현상(Phenomenon)</t>
+          <t>현상</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7841,7 +7837,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>조작(Construction)</t>
+          <t>조작</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -7861,7 +7857,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>발각(find)</t>
+          <t>발각</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -7881,7 +7877,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>남용(Abuse)</t>
+          <t>남용</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -7901,7 +7897,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>사건(event)</t>
+          <t>사건</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -7921,7 +7917,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>유감(Pity)</t>
+          <t>유감</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -7941,7 +7937,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>길조(good omen)</t>
+          <t>길조</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -7961,7 +7957,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>흉조(Fierce)</t>
+          <t>흉조</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -7981,7 +7977,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>망조(Omen)</t>
+          <t>망조</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -8001,11 +7997,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>도발(Pick up)</t>
+          <t>도발</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8021,11 +8017,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>도전(challenge)</t>
+          <t>도전</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8041,7 +8037,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>도망(escape)</t>
+          <t>도망</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -8061,7 +8057,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>도주(escape)</t>
+          <t>도주</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -8081,7 +8077,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>도피(escape)</t>
+          <t>도피</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -8101,7 +8097,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>회피(Avoidance)</t>
+          <t>회피</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -8121,7 +8117,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>지지(support)</t>
+          <t>지지</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -8141,11 +8137,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>지배(Rule)</t>
+          <t>지배</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -8161,11 +8157,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>지급(Supply)</t>
+          <t>지급</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8181,7 +8177,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>급여(Give)</t>
+          <t>급여</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -8201,7 +8197,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>침묵(silence)</t>
+          <t>침묵</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -8221,7 +8217,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>묵인(default)</t>
+          <t>묵인</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -8241,11 +8237,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>묵살(Kill)</t>
+          <t>묵살</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -8261,11 +8257,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>묵념(Silent)</t>
+          <t>묵념</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -8281,7 +8277,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>동맹(alliance)</t>
+          <t>동맹</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -8301,7 +8297,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>맹세(Oath)</t>
+          <t>맹세</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -8321,7 +8317,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>맹방(Allies)</t>
+          <t>맹방</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -8341,7 +8337,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>서약(Vow)</t>
+          <t>서약</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -8361,7 +8357,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>서언(oath)</t>
+          <t>서언</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -8381,7 +8377,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>방자(Let go)</t>
+          <t>방자</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -8401,7 +8397,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>자세(carefulness)</t>
+          <t>자세</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -8421,7 +8417,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>자태(attitude)</t>
+          <t>자태</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -8441,7 +8437,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>간발(Interim)</t>
+          <t>간발</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -8461,7 +8457,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>비견(Shoulder)</t>
+          <t>비견</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -8481,7 +8477,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>침체(Depression)</t>
+          <t>침체</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -8501,7 +8497,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>위축(Atrophy)</t>
+          <t>위축</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -8521,7 +8517,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>차치(Put)</t>
+          <t>차치</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -8541,7 +8537,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>방역(epidemic prevention)</t>
+          <t>방역</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -8565,7 +8561,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -8581,7 +8577,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>규칙(rule)</t>
+          <t>규칙</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -8601,7 +8597,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>일정(must)</t>
+          <t>일정</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -8621,7 +8617,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>출급(Give out)</t>
+          <t>출급</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -8641,11 +8637,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>행위(Pursuit)</t>
+          <t>행위</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8661,11 +8657,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>약속(promise)</t>
+          <t>약속</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8681,7 +8677,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>맹약(Appointment)</t>
+          <t>맹약</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -8701,7 +8697,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>구조(Rescue)</t>
+          <t>구조</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -8721,11 +8717,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>일관(Consistency)</t>
+          <t>일관</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -8741,7 +8737,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>자손(Descendants)</t>
+          <t>자손</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -8761,7 +8757,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>광고(advertise)</t>
+          <t>광고</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -8781,7 +8777,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>만대(Bandai)</t>
+          <t>만대</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -8801,7 +8797,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>인류(Humanity)</t>
+          <t>인류</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -8821,7 +8817,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>평등(equality)</t>
+          <t>평등</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -8841,7 +8837,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>민족(nationality)</t>
+          <t>민족</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -8861,7 +8857,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>대의(Righteousness)</t>
+          <t>대의</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -8881,11 +8877,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>자존(Self -existence)</t>
+          <t>자존</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -8901,11 +8897,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>자존(Self -esteem)</t>
+          <t>자존</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -8921,7 +8917,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>극명(Pronunciation)</t>
+          <t>극명</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -8961,11 +8957,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>정권(regime)</t>
+          <t>정권</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8981,7 +8977,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>영유(Forever)</t>
+          <t>영유</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -9021,7 +9017,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>거부(rejection)</t>
+          <t>거부</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -9041,7 +9037,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>거절(rejection)</t>
+          <t>거절</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -9061,11 +9057,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>교정(correct)</t>
+          <t>교정</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -9081,11 +9077,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>교정(revision)</t>
+          <t>교정</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -9101,7 +9097,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>시각(Perspective)</t>
+          <t>시각</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -9121,7 +9117,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>각축(Compete)</t>
+          <t>각축</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -9141,7 +9137,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>살생(Kill)</t>
+          <t>살생</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -9161,7 +9157,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>상쇄(Offset)</t>
+          <t>상쇄</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -9181,7 +9177,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>쇄도(Flood)</t>
+          <t>쇄도</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -9201,7 +9197,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>살균(Sterilize)</t>
+          <t>살균</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -9221,7 +9217,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>응시(gaze)</t>
+          <t>응시</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -9241,7 +9237,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>응시(Hawking)</t>
+          <t>응시</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -9261,7 +9257,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>여과(filtration)</t>
+          <t>여과</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -9281,7 +9277,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>여과(Deciduous)</t>
+          <t>여과</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -9301,7 +9297,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>모순(contradiction)</t>
+          <t>모순</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -9321,7 +9317,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>본질(Nature)</t>
+          <t>본질</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -9341,7 +9337,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>갈등(conflict)</t>
+          <t>갈등</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -9361,11 +9357,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>가상(imaginary)</t>
+          <t>가상</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9381,11 +9377,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>근본(fundamental)</t>
+          <t>근본</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -9401,7 +9397,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>기회(Chance)</t>
+          <t>기회</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -9421,7 +9417,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>역할(role)</t>
+          <t>역할</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -9441,7 +9437,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>회의(Suspect)</t>
+          <t>회의</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -9461,11 +9457,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>회의(Meeting)</t>
+          <t>회의</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9481,7 +9477,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>공유(Share)</t>
+          <t>공유</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -9501,7 +9497,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>공유(Public)</t>
+          <t>공유</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -9521,7 +9517,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>구분(distinguish)</t>
+          <t>구분</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -9541,7 +9537,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>분류(Classification)</t>
+          <t>분류</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -9561,7 +9557,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>변명(Discern)</t>
+          <t>변명</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -9581,7 +9577,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>결재(Decision)</t>
+          <t>결재</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -9601,7 +9597,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>재고(Reconsideration)</t>
+          <t>재고</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -9621,7 +9617,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>운명(destiny)</t>
+          <t>운명</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -9641,7 +9637,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>성실(honest)</t>
+          <t>성실</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -9661,11 +9657,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>운명(die)</t>
+          <t>운명</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9681,11 +9677,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>성실(Achievement)</t>
+          <t>성실</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9701,11 +9697,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>선출(Select)</t>
+          <t>선출</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9721,11 +9717,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>선출(First-out)</t>
+          <t>선출</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9741,7 +9737,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>규율(law)</t>
+          <t>규율</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -9761,11 +9757,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>노쇠(Aging)</t>
+          <t>노쇠</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -9781,7 +9777,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>추대(Push)</t>
+          <t>추대</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -9801,7 +9797,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>부상(Emerging)</t>
+          <t>부상</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -9821,7 +9817,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>부상(Injury)</t>
+          <t>부상</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -9841,11 +9837,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>소원(Wish)</t>
+          <t>소원</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -9881,7 +9877,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>상식(common sense)</t>
+          <t>상식</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -9901,11 +9897,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>공리(axiom)</t>
+          <t>공리</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -9921,7 +9917,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>주선(deal with)</t>
+          <t>주선</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -9941,7 +9937,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>수렴(convergence)</t>
+          <t>수렴</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -9961,7 +9957,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>미달(Unachieved)</t>
+          <t>미달</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -9981,7 +9977,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>사유(Only)</t>
+          <t>사유</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -10001,7 +9997,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>고독(Lonely)</t>
+          <t>고독</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -10021,7 +10017,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>장악(master)</t>
+          <t>장악</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -10041,7 +10037,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>관장(Control)</t>
+          <t>관장</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -10061,11 +10057,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>난해(Difficulty)</t>
+          <t>난해</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -10081,7 +10077,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>비명(scream)</t>
+          <t>비명</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -10101,11 +10097,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>고민(depressed)</t>
+          <t>고민</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -10121,7 +10117,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>고통(pain)</t>
+          <t>고통</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -10141,7 +10137,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>육체(flesh)</t>
+          <t>육체</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -10161,7 +10157,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>대책(Countermeasure)</t>
+          <t>대책</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -10181,7 +10177,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>색출(Go out)</t>
+          <t>색출</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -10201,7 +10197,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>검색(Retrieval)</t>
+          <t>검색</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -10221,11 +10217,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>색인(index)</t>
+          <t>색인</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -10241,11 +10237,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>인상(Pulling out)</t>
+          <t>인상</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -10261,7 +10257,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>삭막(Somo)</t>
+          <t>삭막</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -10281,7 +10277,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>수색(search)</t>
+          <t>수색</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -10301,7 +10297,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>탁본(Extension)</t>
+          <t>탁본</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -10321,11 +10317,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>여부(Or not)</t>
+          <t>여부</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -10341,11 +10337,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>부인(deny)</t>
+          <t>부인</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -10361,7 +10357,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>부결(veto)</t>
+          <t>부결</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -10381,7 +10377,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>부정(denial)</t>
+          <t>부정</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -10401,7 +10397,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>비색(Not)</t>
+          <t>비색</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -10421,11 +10417,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>어색(Condolence)</t>
+          <t>어색</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -10441,7 +10437,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>비운(Be lucky)</t>
+          <t>비운</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -10461,7 +10457,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>불만(dissatisfied)</t>
+          <t>불만</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -10481,7 +10477,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>부족(insufficient)</t>
+          <t>부족</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -10501,7 +10497,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>불안(anxiety)</t>
+          <t>불안</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10521,7 +10517,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>긍정(affim)</t>
+          <t>긍정</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -10541,7 +10537,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>부정(Fraud)</t>
+          <t>부정</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -10561,7 +10557,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>부정(indefinite)</t>
+          <t>부정</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -10581,7 +10577,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>부정(Unclean)</t>
+          <t>부정</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -10601,7 +10597,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>부정(Unfaithful)</t>
+          <t>부정</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -10621,7 +10617,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>개척(open up)</t>
+          <t>개척</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -10641,11 +10637,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>변경(change)</t>
+          <t>변경</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -10665,7 +10661,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10681,7 +10677,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>갱생(rehabilitation)</t>
+          <t>갱생</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -10701,7 +10697,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>갱신, 경신(renew)</t>
+          <t>갱신, 경신</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -10721,7 +10717,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>탑본(Extension)</t>
+          <t>탑본</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -10741,7 +10737,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>유세(Lobby)</t>
+          <t>유세</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -10761,7 +10757,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>유세(Seduce)</t>
+          <t>유세</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -10781,11 +10777,11 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>조세(Tax)</t>
+          <t>조세</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -10801,7 +10797,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>균열(Cracked)</t>
+          <t>균열</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -10821,7 +10817,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>오열(whimper)</t>
+          <t>오열</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -10841,7 +10837,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>회무(Conference affairs)</t>
+          <t>회무</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -10861,11 +10857,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>회칙(Meeting)</t>
+          <t>회칙</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -10881,7 +10877,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>회합(meet)</t>
+          <t>회합</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -10901,11 +10897,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>회동(Conform to)</t>
+          <t>회동</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -10921,7 +10917,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>사회(society)</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -10941,7 +10937,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>국회(Parliament)</t>
+          <t>국회</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -10961,7 +10957,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>회담(talks)</t>
+          <t>회담</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -10981,7 +10977,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>계기(Opportunity)</t>
+          <t>계기</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -11001,7 +10997,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>기관(organ)</t>
+          <t>기관</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -11021,7 +11017,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>위기(crisis)</t>
+          <t>위기</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -11041,11 +11037,11 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>용역(Service)</t>
+          <t>용역</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -11061,7 +11057,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>현역(Active duty)</t>
+          <t>현역</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -11081,7 +11077,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>징역(Prison)</t>
+          <t>징역</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -11101,7 +11097,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>의무(obligation)</t>
+          <t>의무</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -11121,7 +11117,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>강의(lecture)</t>
+          <t>강의</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -11141,7 +11137,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>의원(Parliament)</t>
+          <t>의원</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -11161,11 +11157,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>논의(Discussion)</t>
+          <t>논의</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -11181,7 +11177,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>협의(protocol)</t>
+          <t>협의</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -11201,7 +11197,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>토의(discussion)</t>
+          <t>토의</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -11221,7 +11217,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>항의(protest)</t>
+          <t>항의</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -11241,11 +11237,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>회유(Tenderness)</t>
+          <t>회유</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -11261,7 +11257,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>회포(embrace)</t>
+          <t>회포</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -11281,7 +11277,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>식견(Shoulders)</t>
+          <t>식견</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -11301,11 +11297,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>식별(Identify)</t>
+          <t>식별</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -11321,7 +11317,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>의도(intention)</t>
+          <t>의도</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -11341,7 +11337,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>의미(meaning)</t>
+          <t>의미</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -11361,7 +11357,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>의외(Accident)</t>
+          <t>의외</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -11381,11 +11377,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>의중(Intention)</t>
+          <t>의중</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -11401,7 +11397,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>의지(will)</t>
+          <t>의지</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -11421,7 +11417,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>의향(intention)</t>
+          <t>의향</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -11441,7 +11437,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>자의(Self -consciousness)</t>
+          <t>자의</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -11461,7 +11457,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>자의(Unreasonable)</t>
+          <t>자의</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -11481,7 +11477,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>연작(Work)</t>
+          <t>연작</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -11501,7 +11497,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>연합(Union)</t>
+          <t>연합</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -11521,7 +11517,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>연관(Associate)</t>
+          <t>연관</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -11541,7 +11537,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>관련(Associate)</t>
+          <t>관련</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -11561,7 +11557,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>연맹(Alliance)</t>
+          <t>연맹</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -11581,7 +11577,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>설명(illustrate)</t>
+          <t>설명</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -11601,7 +11597,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>묘사(description)</t>
+          <t>묘사</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -11621,7 +11617,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>서사(Narrative)</t>
+          <t>서사</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -11641,7 +11637,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>논증(Argument)</t>
+          <t>논증</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -11661,7 +11657,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>연설(speech)</t>
+          <t>연설</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -11681,7 +11677,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>설득(Speak)</t>
+          <t>설득</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -11701,7 +11697,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>설치(set up)</t>
+          <t>설치</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -11721,7 +11717,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>설령(Order)</t>
+          <t>설령</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -11741,7 +11737,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>신설(Newly established)</t>
+          <t>신설</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -11761,7 +11757,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>설정(setting)</t>
+          <t>설정</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -11801,7 +11797,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>물론(Of course)</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -11821,7 +11817,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>논쟁(Argument)</t>
+          <t>논쟁</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -11841,7 +11837,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>사고(think)</t>
+          <t>사고</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -11861,7 +11857,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>준거(Accurate)</t>
+          <t>준거</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -11881,7 +11877,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>검토(Review)</t>
+          <t>검토</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -11901,7 +11897,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>고려(consider)</t>
+          <t>고려</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -11921,7 +11917,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>제고(improve)</t>
+          <t>제고</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -11941,7 +11937,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>수준(level)</t>
+          <t>수준</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -11961,11 +11957,11 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>준칙(Criterion)</t>
+          <t>준칙</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -11981,7 +11977,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>사망(die)</t>
+          <t>사망</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -12001,11 +11997,11 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>멸망(Destroy)</t>
+          <t>멸망</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -12021,7 +12017,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>망신(Dead body)</t>
+          <t>망신</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -12041,11 +12037,11 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>전망(Outlook)</t>
+          <t>전망</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -12061,7 +12057,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>희망(hope)</t>
+          <t>희망</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -12081,7 +12077,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>실망(Disappointed)</t>
+          <t>실망</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -12101,7 +12097,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>절망(disappointment)</t>
+          <t>절망</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -12121,7 +12117,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>망각(forget)</t>
+          <t>망각</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -12141,7 +12137,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>망언(Deliberate)</t>
+          <t>망언</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -12161,7 +12157,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>망령(Deliberate)</t>
+          <t>망령</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -12181,11 +12177,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>망상(Delusion)</t>
+          <t>망상</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -12201,7 +12197,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>경망(Gorgeous)</t>
+          <t>경망</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -12221,7 +12217,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>부활(Revival)</t>
+          <t>부활</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -12241,7 +12237,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>운명(Fate)</t>
+          <t>운명</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -12261,7 +12257,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>설정(Configuration)</t>
+          <t>설정</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -12276,16 +12272,16 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>失望</t>
+          <t>毒舌</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>실망(disappointment)</t>
+          <t>독설</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -12296,16 +12292,16 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>毒舌</t>
+          <t>舌戰</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>독설(vicious)</t>
+          <t>설전</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -12316,16 +12312,16 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>舌戰</t>
+          <t>詭辯</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>설전(Tongue warfare)</t>
+          <t>궤변</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -12336,16 +12332,16 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>詭辯</t>
+          <t>言辯</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>궤변(sophistry)</t>
+          <t>언변</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -12356,16 +12352,16 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>言辯</t>
+          <t>抗辯</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>언변(Argue)</t>
+          <t>항변</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -12376,16 +12372,16 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>抗辯</t>
+          <t>辯論</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>항변(Defense)</t>
+          <t>변론</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -12396,16 +12392,16 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>辯論</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>변론(debate)</t>
+          <t>통치</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -12416,16 +12412,16 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>陶冶</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>통치(rule)</t>
+          <t>도야</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -12436,16 +12432,16 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>陶冶</t>
+          <t>汨沒</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>도야(mold)</t>
+          <t>골몰</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -12456,12 +12452,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>汨沒</t>
+          <t>沒頭</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>골몰(No)</t>
+          <t>몰두</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -12476,16 +12472,16 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>沒頭</t>
+          <t>沒落</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>몰두(No)</t>
+          <t>몰락</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -12496,16 +12492,16 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>沒落</t>
+          <t>陽地</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>몰락(decline)</t>
+          <t>양지</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -12516,16 +12512,16 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>陽地</t>
+          <t>陰地</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>양지(Yang)</t>
+          <t>음지</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -12536,16 +12532,16 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>陰地</t>
+          <t>陽刻</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>음지</t>
+          <t>양각</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -12556,16 +12552,16 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>陽刻</t>
+          <t>陰刻</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>양각(Yang)</t>
+          <t>음각</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -12576,12 +12572,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>陰刻</t>
+          <t>止揚</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>음각(Carving)</t>
+          <t>지양</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -12596,12 +12592,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>止揚</t>
+          <t>揭揚</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>지양(Stopping)</t>
+          <t>게양</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -12616,16 +12612,16 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>揭揚</t>
+          <t>揭示</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>게양(Show up)</t>
+          <t>게시</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -12636,16 +12632,16 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>揭示</t>
+          <t>場所</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>게시(reveal)</t>
+          <t>장소</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -12656,16 +12652,16 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>場所</t>
+          <t>廣場</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>장소(place)</t>
+          <t>광장</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -12676,16 +12672,16 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>廣場</t>
+          <t>禁忌</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>광장(square)</t>
+          <t>금기</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -12696,16 +12692,16 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>禁忌</t>
+          <t>猜忌</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>금기(Taboo)</t>
+          <t>시기</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -12716,16 +12712,16 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>猜忌</t>
+          <t>記錄</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>시기(Jealous)</t>
+          <t>기록</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -12736,16 +12732,16 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>記錄</t>
+          <t>書記</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>기록(Record)</t>
+          <t>서기</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -12756,16 +12752,16 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>書記</t>
+          <t>記念</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>서기(secretary)</t>
+          <t>기념</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -12776,16 +12772,16 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>記念</t>
+          <t>紀念</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>기념(anniversary)</t>
+          <t>기념</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -12796,16 +12792,16 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>紀念</t>
+          <t>改善</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>기념(commemorate)</t>
+          <t>개선</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -12816,16 +12812,16 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>改善</t>
+          <t>改良</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>개선(improve)</t>
+          <t>개량</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -12836,16 +12832,16 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>改良</t>
+          <t>頭巾</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>개량(Improvement)</t>
+          <t>두건</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -12856,12 +12852,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>頭巾</t>
+          <t>市場</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>두건(scarf)</t>
+          <t>시장</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -12876,16 +12872,16 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>市場</t>
+          <t>姉妹</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>시장(market)</t>
+          <t>자매</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -12896,12 +12892,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>姉妹</t>
+          <t>肺病</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>자매(Sisters)</t>
+          <t>폐병</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -12916,16 +12912,16 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>肺病</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>폐병(pulmonary disease)</t>
+          <t>폐렴</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -12936,12 +12932,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>肺炎</t>
+          <t>帶同</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>폐렴(pneumonia)</t>
+          <t>대동</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -12956,16 +12952,16 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>帶同</t>
+          <t>腰帶</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>대동</t>
+          <t>요대</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -12976,16 +12972,16 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>腰帶</t>
+          <t>滯症</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>요대(belt)</t>
+          <t>체증</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -12996,16 +12992,16 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>滯症</t>
+          <t>眼前</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>체증(Stagnation)</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -13016,16 +13012,16 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>眼前</t>
+          <t>曙光</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>서광</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -13036,12 +13032,12 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>曙光</t>
+          <t>催促</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>서광(Dawn)</t>
+          <t>최촉</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -13056,16 +13052,16 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>催促</t>
+          <t>閉蟄</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>최촉(Urge)</t>
+          <t>폐칩</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -13076,16 +13072,16 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>閉蟄</t>
+          <t>振舒</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>폐칩(Close)</t>
+          <t>진서</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -13096,16 +13092,16 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>振舒</t>
+          <t>復運</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>진서(Zhen Shu)</t>
+          <t>복운</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -13116,16 +13112,16 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>復運</t>
+          <t>躊躇</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>복운(Recurrence)</t>
+          <t>주저</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -13136,16 +13132,16 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>躊躇</t>
+          <t>忌憚</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>주저(hesitation)</t>
+          <t>기탄</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -13156,16 +13152,16 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>忌憚</t>
+          <t>展開</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>기탄(fear)</t>
+          <t>전개</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -13176,16 +13172,16 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>展開</t>
+          <t>威力</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>전개(Development)</t>
+          <t>위력</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13196,12 +13192,12 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>威力</t>
+          <t>時代</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>위력(power)</t>
+          <t>시대</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -13216,16 +13212,16 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>時代</t>
+          <t>過去</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>시대(era)</t>
+          <t>과거</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -13236,12 +13232,12 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>過去</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>과거(past)</t>
+          <t>현재</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -13256,16 +13252,16 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>現在</t>
+          <t>未來</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>현재(Now)</t>
+          <t>미래</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -13276,16 +13272,16 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>未來</t>
+          <t>精神</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>미래(future)</t>
+          <t>정신</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -13296,16 +13292,16 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>精神</t>
+          <t>投射</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>정신(Spirit)</t>
+          <t>투사</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -13316,16 +13312,16 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>投射</t>
+          <t>呼吸</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>투사(projection)</t>
+          <t>호흡</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -13336,16 +13332,16 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>呼吸</t>
+          <t>乘客</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>호흡(breathe)</t>
+          <t>승객</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -13356,12 +13352,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>乘客</t>
+          <t>變潮</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>승객(passenger)</t>
+          <t>변조</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -13376,16 +13372,16 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>變潮</t>
+          <t>吾等</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>변조(Tide)</t>
+          <t>오등</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -13396,12 +13392,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>吾等</t>
+          <t>固有</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>오등(Wait)</t>
+          <t>고유</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -13416,16 +13412,16 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>固有</t>
+          <t>自由</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>고유(Clinical)</t>
+          <t>자유</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -13436,16 +13432,16 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>自由</t>
+          <t>確固</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>자유(free)</t>
+          <t>확고</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -13456,16 +13452,16 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>確固</t>
+          <t>消滅</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>확고(Firm)</t>
+          <t>소멸</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -13476,12 +13472,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>消滅</t>
+          <t>困惑</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>소멸(wipe out)</t>
+          <t>곤혹</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -13496,16 +13492,16 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>困惑</t>
+          <t>健實</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>곤혹(Puzzled)</t>
+          <t>건실</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -13516,16 +13512,16 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>健實</t>
+          <t>確實</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>건실(Strong)</t>
+          <t>확실</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -13536,12 +13532,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>確實</t>
+          <t>消去</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>확실(really)</t>
+          <t>소거</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -13556,12 +13552,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>消去</t>
+          <t>消失</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>소거(erase)</t>
+          <t>소실</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -13576,16 +13572,16 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>消失</t>
+          <t>燒失</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>소실(disappear)</t>
+          <t>소실</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -13596,16 +13592,16 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>燒失</t>
+          <t>消盡</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>소실(Burn)</t>
+          <t>소진</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -13616,16 +13612,16 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>消盡</t>
+          <t>困辱</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>소진(Disappear)</t>
+          <t>곤욕</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -13636,16 +13632,16 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>困辱</t>
+          <t>昏困</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>곤욕(Disgrace)</t>
+          <t>혼곤</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -13656,12 +13652,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>昏困</t>
+          <t>混亂</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>혼곤(Faint)</t>
+          <t>혼란</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -13676,16 +13672,16 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>混亂</t>
+          <t>看做</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>혼란(confusion)</t>
+          <t>간주</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -13696,16 +13692,16 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>看做</t>
+          <t>披瀝</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>간주(Look at)</t>
+          <t>피력</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -13716,16 +13712,16 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>披瀝</t>
+          <t>介入</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>피력(Show off)</t>
+          <t>개입</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -13736,16 +13732,16 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>介入</t>
+          <t>所持</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>개입(intervention)</t>
+          <t>소지</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -13756,16 +13752,16 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>所持</t>
+          <t>凌駕</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>소지(Possession)</t>
+          <t>능가</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -13776,12 +13772,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>凌駕</t>
+          <t>背馳</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>능가(Overwhelm)</t>
+          <t>배치</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -13796,12 +13792,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>背馳</t>
+          <t>適合</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>배치(Rejuvenate)</t>
+          <t>적합</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -13816,12 +13812,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>適合</t>
+          <t>保重</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>적합(Suitable for)</t>
+          <t>보중</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -13836,16 +13832,16 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>保重</t>
+          <t>停滯</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>보중</t>
+          <t>정체</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -13856,12 +13852,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>停滯</t>
+          <t>正體</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>정체(Stagnation)</t>
+          <t>정체</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -13876,16 +13872,16 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>正體</t>
+          <t>鳥瞰</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>정체(Block letter)</t>
+          <t>조감</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -13896,16 +13892,16 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>鳥瞰</t>
+          <t>物望</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>조감</t>
+          <t>물망</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -13916,16 +13912,16 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>物望</t>
+          <t>推薦</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>물망(Look at)</t>
+          <t>추천</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -13936,16 +13932,16 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>推薦</t>
+          <t>落點</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>추천(recommend)</t>
+          <t>낙점</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -13956,16 +13952,16 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>落點</t>
+          <t>立夏</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>낙점(Falling point)</t>
+          <t>입하</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -13976,16 +13972,16 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>立夏</t>
+          <t>小滿</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>입하</t>
+          <t>소만</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -13996,12 +13992,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>小滿</t>
+          <t>芒種</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>소만(Full)</t>
+          <t>망종</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -14016,16 +14012,16 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>芒種</t>
+          <t>夏至</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>망종(Pimple)</t>
+          <t>하지</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -14036,16 +14032,16 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>夏至</t>
+          <t>反映</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>하지(Summer solstice)</t>
+          <t>반영</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -14056,16 +14052,16 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>反映</t>
+          <t>省察</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>반영(reflect)</t>
+          <t>성찰</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -14076,16 +14072,16 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>省察</t>
+          <t>究明</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>성찰(Provincial inspection)</t>
+          <t>구명</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -14096,12 +14092,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>究明</t>
+          <t>獲得</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>구명(Investigation)</t>
+          <t>획득</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -14116,16 +14112,16 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>獲得</t>
+          <t>異動</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>획득(get)</t>
+          <t>이동</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -14136,16 +14132,16 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>異動</t>
+          <t>移動</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>이동(Transfer)</t>
+          <t>이동</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -14156,16 +14152,16 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>移動</t>
+          <t>揭載</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>이동(move)</t>
+          <t>게재</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -14176,16 +14172,16 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>揭載</t>
+          <t>樹立</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>게재(Reveal)</t>
+          <t>수립</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -14196,16 +14192,16 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>樹立</t>
+          <t>勇退</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>수립(Establish)</t>
+          <t>용퇴|후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -14216,12 +14212,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>勇退</t>
+          <t>勃發</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>용퇴(bowing out)|후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+          <t>발발</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -14236,16 +14232,16 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>勃發</t>
+          <t>建立</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>발발(thrive)</t>
+          <t>건립</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -14256,16 +14252,16 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>建立</t>
+          <t>仕退</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>건립(Establish)</t>
+          <t>사퇴</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -14276,16 +14272,16 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>仕退</t>
+          <t>起床</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>사퇴(Retire)</t>
+          <t>기상</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -14296,16 +14292,16 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>起床</t>
+          <t>定立</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>기상(get up)</t>
+          <t>정립</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -14316,16 +14312,16 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>定立</t>
+          <t>辭任</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>정립(Determine)</t>
+          <t>사임</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -14336,16 +14332,16 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>辭任</t>
+          <t>生成</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>사임(Resign)</t>
+          <t>생성</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -14356,12 +14352,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>生成</t>
+          <t>設立</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>생성(generate)</t>
+          <t>설립</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -14376,12 +14372,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>設立</t>
+          <t>退任</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>설립(set up)</t>
+          <t>퇴임</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -14396,16 +14392,16 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>退任</t>
+          <t>訥辯</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>퇴임(Retirement)</t>
+          <t>눌변|더듬거리는 말솜씨</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -14416,12 +14412,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>訥辯</t>
+          <t>達辯</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>눌변(Argue)|더듬거리는 말솜씨</t>
+          <t>달변|능숙하여 막힘이 없는 말솜씨</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -14436,16 +14432,16 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>達辯</t>
+          <t>嚆矢</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>달변(Argue)|능숙하여 막힘이 없는 말솜씨</t>
+          <t>효시</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -14456,16 +14452,16 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>嚆矢</t>
+          <t>濫觴</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>효시(First)</t>
+          <t>남상|사물의 처음이나 기원</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -14476,16 +14472,16 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>濫觴</t>
+          <t>一毫</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>남상(Settle)|사물의 처음이나 기원</t>
+          <t>일호|극히 작은 정도</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -14496,12 +14492,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>一毫</t>
+          <t>秋毫</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>일호|극히 작은 정도</t>
+          <t>추호|매우 적거나 조금인 것</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -14516,16 +14512,16 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>秋毫</t>
+          <t>乾坤</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>추호(Beyond)|매우 적거나 조금인 것</t>
+          <t>건곤|하늘과 땅</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -14536,16 +14532,16 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>乾坤</t>
+          <t>押釘</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>건곤(Unbroken)|하늘과 땅</t>
+          <t>압정</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -14556,16 +14552,16 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>押釘</t>
+          <t>壓迫</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>압정(Nail)</t>
+          <t>압박</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -14576,16 +14572,16 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>壓迫</t>
+          <t>壓勝</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>압박(oppression)</t>
+          <t>압승</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -14596,16 +14592,16 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>壓勝</t>
+          <t>壓縮</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>압승(Overwhelm)</t>
+          <t>압축</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -14616,12 +14612,12 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>壓縮</t>
+          <t>記號</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>압축(compression)</t>
+          <t>기호|부호, 문자, 표지</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -14636,12 +14632,12 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>記號</t>
+          <t>嗜好</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>기호(mark)|부호, 문자, 표지</t>
+          <t>기호|즐기고 좋아함</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -14656,16 +14652,16 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>嗜好</t>
+          <t>匿名</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>기호(preference)|즐기고 좋아함</t>
+          <t>익명</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -14676,12 +14672,12 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>匿名</t>
+          <t>販賣</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>익명(Anonymous)</t>
+          <t>판매</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -14696,12 +14692,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>販賣</t>
+          <t>慇懃</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>판매(Sell)</t>
+          <t>은근</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -14716,16 +14712,16 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>慇懃</t>
+          <t>惟獨</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>은근(Courtesy)</t>
+          <t>유독</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -14736,16 +14732,16 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>惟獨</t>
+          <t>寂寂</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>유독(Only)</t>
+          <t>적적</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -14756,12 +14752,12 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>寂寂</t>
+          <t>凜凜</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>적적(Silence)</t>
+          <t>늠름</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -14776,12 +14772,12 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>凜凜</t>
+          <t>受賞</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>늠름(凜凜)</t>
+          <t>수상|상을 받음</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -14796,16 +14792,16 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>受賞</t>
+          <t>手相</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>수상(Awarded)|상을 받음</t>
+          <t>수상|손금이나 손의 모양</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -14816,16 +14812,16 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>手相</t>
+          <t>隨想</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>수상(Palm)|손금이나 손의 모양</t>
+          <t>수상|그때 그때 떠오르는 느낌이나 생각</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -14836,12 +14832,12 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>隨想</t>
+          <t>匡正</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>수상(Imagine)|그때 그때 떠오르는 느낌이나 생각</t>
+          <t>광정|잘못된 것이나 부정따위를 바로잡음</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -14856,12 +14852,12 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>匡正</t>
+          <t>廓正</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>광정(Righteousness)|잘못된 것이나 부정따위를 바로잡음</t>
+          <t>확정|잘못을 바로잡음</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -14876,16 +14872,16 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>廓正</t>
+          <t>中傷</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>확정(Positive)|잘못을 바로잡음</t>
+          <t>중상|근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -14896,12 +14892,12 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>中傷</t>
+          <t>誹謗</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>중상(Slander)|근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+          <t>비방|남을 비웃고 헐뜯어서 말함</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -14916,16 +14912,16 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>誹謗</t>
+          <t>軋轢</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>비방(defamation)|남을 비웃고 헐뜯어서 말함</t>
+          <t>알력|의견이 달라 충돌함</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -14936,16 +14932,16 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>軋轢</t>
+          <t>慨歎</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>알력(Friction)|의견이 달라 충돌함</t>
+          <t>개탄|분하고 안타깝게 여기어 탄식하다</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -14956,12 +14952,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>慨歎</t>
+          <t>感歎</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>개탄(Deeply)|분하고 안타깝게 여기어 탄식하다</t>
+          <t>감탄|마음속 깊이 느끼어 탄복하다</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -14976,16 +14972,16 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>感歎</t>
+          <t>憤怒</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>감탄(sigh)|마음속 깊이 느끼어 탄복하다</t>
+          <t>분노|분해 성내다</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -14996,16 +14992,16 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>憤怒</t>
+          <t>敬歎</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>분노(anger)|분해 성내다</t>
+          <t>경탄|우러르며 감탄하다</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -15016,16 +15012,16 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>敬歎</t>
+          <t>流失</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>경탄(Daunting)|우러르며 감탄하다</t>
+          <t>유실|떠내려가서 없어지거나 잃음</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -15036,16 +15032,16 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>流失</t>
+          <t>毁損</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>유실(Lose)|떠내려가서 없어지거나 잃음</t>
+          <t>훼손|체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -15056,16 +15052,16 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>毁損</t>
+          <t>準備</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>훼손(damage)|체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+          <t>준비</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -15076,16 +15072,16 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>準備</t>
+          <t>未備</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>준비</t>
+          <t>미비</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -15096,16 +15092,16 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>未備</t>
+          <t>子規</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>미비</t>
+          <t>자규 | 소쩍새</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -15116,16 +15112,16 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>子規</t>
+          <t>細雨</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>자규 | 소쩍새</t>
+          <t>세우 | 가랑비</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -15136,16 +15132,16 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>細雨</t>
+          <t>陰雨</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>세우 | 가랑비</t>
+          <t>음우 | 몹시 음산하게 오는 비</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -15156,16 +15152,16 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>陰雨</t>
+          <t>錦繡</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>음우 | 몹시 음산하게 오는 비</t>
+          <t>금수 | 수를 놓은 비단</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -15176,12 +15172,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>錦繡</t>
+          <t>消防官</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>금수 | 수를 놓은 비단</t>
+          <t>소방관</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -15189,23 +15185,23 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>2글자</t>
+          <t>3글자</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>消防官</t>
+          <t>科學者</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>소방관</t>
+          <t>과학자</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -15216,16 +15212,16 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>科學者</t>
+          <t>硏究員</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>과학자</t>
+          <t>연구원</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -15236,16 +15232,16 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>硏究員</t>
+          <t>體系的</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>연구원</t>
+          <t>체계적</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -15256,16 +15252,16 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>體系的</t>
+          <t>抛物線</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>체계적</t>
+          <t>포물선</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -15276,12 +15272,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>抛物線</t>
+          <t>有名稅</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>포물선</t>
+          <t>유명세</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -15296,16 +15292,16 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>有名稅</t>
+          <t>福不福</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>유명세</t>
+          <t>복불복</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -15316,16 +15312,16 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>福不福</t>
+          <t>勢道家</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>복불복</t>
+          <t>세도가</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -15336,16 +15332,16 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>勢道家</t>
+          <t>口舌數</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>세도가</t>
+          <t>구설수</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -15356,12 +15352,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>口舌數</t>
+          <t>挑戰者</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>구설수</t>
+          <t>도전자</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -15376,12 +15372,12 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>挑戰者</t>
+          <t>不可避</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>도전자</t>
+          <t>불가피</t>
         </is>
       </c>
       <c r="C737" t="n">
@@ -15396,16 +15392,16 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>不可避</t>
+          <t>誓約書</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>불가피</t>
+          <t>서약서</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -15416,16 +15412,16 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>誓約書</t>
+          <t>恣意性</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>서약서</t>
+          <t>자의성</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -15436,16 +15432,16 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>恣意性</t>
+          <t>地自體</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>자의성</t>
+          <t>지자체</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -15456,16 +15452,16 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>地自體</t>
+          <t>自尊心</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>지자체</t>
+          <t>자존심</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -15476,16 +15472,16 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>自尊心</t>
+          <t>自存性</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>자존심</t>
+          <t>자존성</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -15496,16 +15492,16 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>自存性</t>
+          <t>矯導官</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>자존성</t>
+          <t>교도관</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -15516,16 +15512,16 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>矯導官</t>
+          <t>不條理</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>교도관</t>
+          <t>부조리</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -15536,12 +15532,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>不條理</t>
+          <t>自敍傳</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>부조리</t>
+          <t>자서전</t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -15556,16 +15552,16 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>自敍傳</t>
+          <t>厭世的</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>자서전</t>
+          <t>염세적</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -15576,16 +15572,16 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>厭世的</t>
+          <t>恣意的</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>염세적</t>
+          <t>자의적</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -15596,12 +15592,12 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>恣意的</t>
+          <t>聯關性</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>자의적</t>
+          <t>연관성</t>
         </is>
       </c>
       <c r="C748" t="n">
@@ -15616,12 +15612,12 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>聯關性</t>
+          <t>如反掌</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>연관성</t>
+          <t>여반장</t>
         </is>
       </c>
       <c r="C749" t="n">
@@ -15636,16 +15632,16 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>如反掌</t>
+          <t>自鳴鐘</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>여반장</t>
+          <t>자명종</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -15656,16 +15652,16 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>自鳴鐘</t>
+          <t>姑息策</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>자명종</t>
+          <t>고식책</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -15676,12 +15672,12 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>姑息策</t>
+          <t>苦肉策</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>고식책</t>
+          <t>고육책</t>
         </is>
       </c>
       <c r="C752" t="n">
@@ -15696,16 +15692,16 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>苦肉策</t>
+          <t>彌縫策</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>고육책</t>
+          <t>미봉책</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -15716,16 +15712,16 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>彌縫策</t>
+          <t>不動産</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>미봉책</t>
+          <t>부동산</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -15736,16 +15732,16 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>不動産</t>
+          <t>不可能</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>부동산</t>
+          <t>불가능</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -15756,16 +15752,16 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>不可能</t>
+          <t>干拓地</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>불가능</t>
+          <t>간척지</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -15776,16 +15772,16 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>干拓地</t>
+          <t>沒常識</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>간척지</t>
+          <t>몰상식</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -15796,16 +15792,16 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>沒常識</t>
+          <t>再檢討</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>몰상식</t>
+          <t>재검토</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -15816,16 +15812,16 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>再檢討</t>
+          <t>平準化</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>재검토</t>
+          <t>평준화</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -15836,12 +15832,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>平準化</t>
+          <t>標準語</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>평준화</t>
+          <t>표준어</t>
         </is>
       </c>
       <c r="C760" t="n">
@@ -15856,16 +15852,16 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>標準語</t>
+          <t>死亡率</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>표준어</t>
+          <t>사망률</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -15876,12 +15872,12 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>死亡率</t>
+          <t>長廣舌</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>사망률</t>
+          <t>장광설</t>
         </is>
       </c>
       <c r="C762" t="n">
@@ -15896,12 +15892,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>長廣舌</t>
+          <t>辨別力</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>장광설</t>
+          <t>변별력</t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -15916,16 +15912,16 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>辨別力</t>
+          <t>辨證法</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>변별력</t>
+          <t>변증법</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -15936,16 +15932,16 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>辨證法</t>
+          <t>辯護士</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>변증법</t>
+          <t>변호사</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -15956,16 +15952,16 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>辯護士</t>
+          <t>揭示板</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>변호사</t>
+          <t>게시판</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -15976,16 +15972,16 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>揭示板</t>
+          <t>浮揚策</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>게시판</t>
+          <t>부양책</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -15996,16 +15992,16 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>浮揚策</t>
+          <t>健忘症</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>부양책</t>
+          <t>건망증</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -16016,12 +16012,12 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>健忘症</t>
+          <t>牽引車</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>건망증</t>
+          <t>견인차</t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -16036,16 +16032,16 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>牽引車</t>
+          <t>起爆劑</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>견인차</t>
+          <t>기폭제</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -16056,16 +16052,16 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>起爆劑</t>
+          <t>試金石</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>기폭제</t>
+          <t>시금석</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -16076,16 +16072,16 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>試金石</t>
+          <t>防腐劑</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>시금석</t>
+          <t>방부제</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -16096,16 +16092,16 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>防腐劑</t>
+          <t>下馬評</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>방부제</t>
+          <t>하마평</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -16116,16 +16112,16 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>下馬評</t>
+          <t>裁量權</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>하마평</t>
+          <t>재량권</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -16136,12 +16132,12 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>裁量權</t>
+          <t>嗚咽</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>재량권</t>
+          <t>오열</t>
         </is>
       </c>
       <c r="C775" t="n">
@@ -16149,23 +16145,23 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>3글자</t>
+          <t>2글자</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>嗚咽</t>
+          <t>捕捉</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>오열</t>
+          <t>포착</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -16176,16 +16172,16 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>捕捉</t>
+          <t>滑走</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>포착</t>
+          <t>활주</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -16196,16 +16192,16 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>滑走</t>
+          <t>村度</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>활주</t>
+          <t>촌탁</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -16216,16 +16212,16 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>村度</t>
+          <t>邁進</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>촌탁</t>
+          <t>매진</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -16236,16 +16232,16 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>邁進</t>
+          <t>看過</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>매진</t>
+          <t>간과</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -16256,16 +16252,16 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>看過</t>
+          <t>暴惡</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>간과</t>
+          <t>포악</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -16276,16 +16272,16 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>暴惡</t>
+          <t>認識</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>포악</t>
+          <t>인식 | 사물을 분별하고 판단하여 앎</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -16296,16 +16292,16 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>認識</t>
+          <t>對處</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>인식 | 사물을 분별하고 판단하여 앎</t>
+          <t>대처 | 어떤 정세나 사건에 대하여 알맞은 조치를 취함</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -16316,38 +16312,18 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>對處</t>
+          <t>宣揚</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>대처 | 어떤 정세나 사건에 대하여 알맞은 조치를 취함</t>
+          <t>선양 | 명성이나 권위 따위를 널리 떨치게 함</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D784" t="inlineStr">
-        <is>
-          <t>2글자</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>宣揚</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>선양 | 명성이나 권위 따위를 널리 떨치게 함</t>
-        </is>
-      </c>
-      <c r="C785" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D785" t="inlineStr">
         <is>
           <t>2글자</t>
         </is>
